--- a/Bilets/EBilets.Web/files/users2.xlsx
+++ b/Bilets/EBilets.Web/files/users2.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Test123$</t>
   </si>
   <si>
-    <t>user@gmail.com</t>
+    <t>User</t>
+  </si>
+  <si>
+    <t>user3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -372,23 +375,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Bilets/EBilets.Web/files/users2.xlsx
+++ b/Bilets/EBilets.Web/files/users2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Test123$</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>user3@gmail.com</t>
+  </si>
+  <si>
+    <t>adminElena@gmail.com</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -375,13 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -389,15 +397,24 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
